--- a/data/georgia_census/samegrelo/martvili/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/martvili/education_graduates.xlsx
@@ -1836,13 +1836,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF792607-1AF3-4A60-A838-6DA5F84EA57B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413A9765-62A3-4FF4-BB43-99DCE004A662}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B42AB59-F436-40F1-9F15-21C18569DFC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED8419C3-727B-4477-B26B-F7FCA3ECADBA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35AFAD80-443C-457E-BBFB-E3E19326BF25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0E980C-62D5-4068-AEA0-980A16AB7647}"/>
 </file>